--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.048765</v>
+        <v>1.820031</v>
       </c>
       <c r="H2">
-        <v>4.09753</v>
+        <v>3.640062</v>
       </c>
       <c r="I2">
-        <v>0.2683787266490385</v>
+        <v>0.04003587637365124</v>
       </c>
       <c r="J2">
-        <v>0.2009292745410326</v>
+        <v>0.02707755008433881</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N2">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O2">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P2">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q2">
-        <v>0.2773484887275</v>
+        <v>0.3144203654205</v>
       </c>
       <c r="R2">
-        <v>1.10939395491</v>
+        <v>1.257681461682</v>
       </c>
       <c r="S2">
-        <v>0.01101709542984344</v>
+        <v>0.004223856901288459</v>
       </c>
       <c r="T2">
-        <v>0.005810343641786171</v>
+        <v>0.002247875743263403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.048765</v>
+        <v>1.820031</v>
       </c>
       <c r="H3">
-        <v>4.09753</v>
+        <v>3.640062</v>
       </c>
       <c r="I3">
-        <v>0.2683787266490385</v>
+        <v>0.04003587637365124</v>
       </c>
       <c r="J3">
-        <v>0.2009292745410326</v>
+        <v>0.02707755008433881</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.398318</v>
       </c>
       <c r="O3">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P3">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q3">
-        <v>0.9549416590900002</v>
+        <v>0.8483273692860002</v>
       </c>
       <c r="R3">
-        <v>5.72964995454</v>
+        <v>5.089964215716001</v>
       </c>
       <c r="S3">
-        <v>0.03793308352389949</v>
+        <v>0.01139625103010879</v>
       </c>
       <c r="T3">
-        <v>0.03000848799984914</v>
+        <v>0.00909738073047919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.048765</v>
+        <v>1.820031</v>
       </c>
       <c r="H4">
-        <v>4.09753</v>
+        <v>3.640062</v>
       </c>
       <c r="I4">
-        <v>0.2683787266490385</v>
+        <v>0.04003587637365124</v>
       </c>
       <c r="J4">
-        <v>0.2009292745410326</v>
+        <v>0.02707755008433881</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N4">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O4">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P4">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q4">
-        <v>0.3152837629283333</v>
+        <v>0.489389955621</v>
       </c>
       <c r="R4">
-        <v>1.89170257757</v>
+        <v>2.936339733726</v>
       </c>
       <c r="S4">
-        <v>0.01252399578450335</v>
+        <v>0.006574361488024144</v>
       </c>
       <c r="T4">
-        <v>0.009907609461082781</v>
+        <v>0.005248170592095531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.048765</v>
+        <v>1.820031</v>
       </c>
       <c r="H5">
-        <v>4.09753</v>
+        <v>3.640062</v>
       </c>
       <c r="I5">
-        <v>0.2683787266490385</v>
+        <v>0.04003587637365124</v>
       </c>
       <c r="J5">
-        <v>0.2009292745410326</v>
+        <v>0.02707755008433881</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N5">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O5">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P5">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q5">
-        <v>0.809305199065</v>
+        <v>1.0513763977545</v>
       </c>
       <c r="R5">
-        <v>3.23722079626</v>
+        <v>4.205505591018</v>
       </c>
       <c r="S5">
-        <v>0.0321479761828732</v>
+        <v>0.01412396887068055</v>
       </c>
       <c r="T5">
-        <v>0.01695463111851297</v>
+        <v>0.007516572593480952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.048765</v>
+        <v>1.820031</v>
       </c>
       <c r="H6">
-        <v>4.09753</v>
+        <v>3.640062</v>
       </c>
       <c r="I6">
-        <v>0.2683787266490385</v>
+        <v>0.04003587637365124</v>
       </c>
       <c r="J6">
-        <v>0.2009292745410326</v>
+        <v>0.02707755008433881</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N6">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O6">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P6">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q6">
-        <v>1.516142099576667</v>
+        <v>0.07497375033699999</v>
       </c>
       <c r="R6">
-        <v>9.09685259746</v>
+        <v>0.449842502022</v>
       </c>
       <c r="S6">
-        <v>0.06022561100973157</v>
+        <v>0.001007181555663214</v>
       </c>
       <c r="T6">
-        <v>0.04764388648052953</v>
+        <v>0.0008040112535584529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.048765</v>
+        <v>1.820031</v>
       </c>
       <c r="H7">
-        <v>4.09753</v>
+        <v>3.640062</v>
       </c>
       <c r="I7">
-        <v>0.2683787266490385</v>
+        <v>0.04003587637365124</v>
       </c>
       <c r="J7">
-        <v>0.2009292745410326</v>
+        <v>0.02707755008433881</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N7">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O7">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P7">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q7">
-        <v>2.883245423385001</v>
+        <v>0.201749222996</v>
       </c>
       <c r="R7">
-        <v>17.29947254031</v>
+        <v>1.210495337976</v>
       </c>
       <c r="S7">
-        <v>0.1145309647181875</v>
+        <v>0.002710256527886087</v>
       </c>
       <c r="T7">
-        <v>0.09060431583927198</v>
+        <v>0.00216353917146128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.801811</v>
       </c>
       <c r="I8">
-        <v>0.07867629878524066</v>
+        <v>0.01321169482730146</v>
       </c>
       <c r="J8">
-        <v>0.08835483256743759</v>
+        <v>0.01340324082254989</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N8">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O8">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P8">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q8">
-        <v>0.08130582046949998</v>
+        <v>0.1037575867368333</v>
       </c>
       <c r="R8">
-        <v>0.4878349228169999</v>
+        <v>0.6225455204210001</v>
       </c>
       <c r="S8">
-        <v>0.003229705657398748</v>
+        <v>0.001393857545497386</v>
       </c>
       <c r="T8">
-        <v>0.002554988270384935</v>
+        <v>0.001112686333596839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.801811</v>
       </c>
       <c r="I9">
-        <v>0.07867629878524066</v>
+        <v>0.01321169482730146</v>
       </c>
       <c r="J9">
-        <v>0.08835483256743759</v>
+        <v>0.01340324082254989</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.398318</v>
       </c>
       <c r="O9">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P9">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q9">
         <v>0.2799449726553334</v>
@@ -1013,10 +1013,10 @@
         <v>2.519504753898</v>
       </c>
       <c r="S9">
-        <v>0.01112023538689257</v>
+        <v>0.003760721743166526</v>
       </c>
       <c r="T9">
-        <v>0.01319566269716053</v>
+        <v>0.004503154251593913</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.801811</v>
       </c>
       <c r="I10">
-        <v>0.07867629878524066</v>
+        <v>0.01321169482730146</v>
       </c>
       <c r="J10">
-        <v>0.08835483256743759</v>
+        <v>0.01340324082254989</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N10">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O10">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P10">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q10">
-        <v>0.09242669806211111</v>
+        <v>0.1614969205336667</v>
       </c>
       <c r="R10">
-        <v>0.831840282559</v>
+        <v>1.453472284803</v>
       </c>
       <c r="S10">
-        <v>0.003671459532689493</v>
+        <v>0.002169515582811185</v>
       </c>
       <c r="T10">
-        <v>0.00435668310193776</v>
+        <v>0.00259781605442826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>1.801811</v>
       </c>
       <c r="I11">
-        <v>0.07867629878524066</v>
+        <v>0.01321169482730146</v>
       </c>
       <c r="J11">
-        <v>0.08835483256743759</v>
+        <v>0.01340324082254989</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N11">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O11">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P11">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q11">
-        <v>0.2372510610103333</v>
+        <v>0.3469504198215</v>
       </c>
       <c r="R11">
-        <v>1.423506366062</v>
+        <v>2.081702518929</v>
       </c>
       <c r="S11">
-        <v>0.009424307995961625</v>
+        <v>0.004660858793952738</v>
       </c>
       <c r="T11">
-        <v>0.007455477043555258</v>
+        <v>0.003720662774763866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>1.801811</v>
       </c>
       <c r="I12">
-        <v>0.07867629878524066</v>
+        <v>0.01321169482730146</v>
       </c>
       <c r="J12">
-        <v>0.08835483256743759</v>
+        <v>0.01340324082254989</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N12">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O12">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P12">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q12">
-        <v>0.4444631298335556</v>
+        <v>0.02474106724344444</v>
       </c>
       <c r="R12">
-        <v>4.000168168502</v>
+        <v>0.222669605191</v>
       </c>
       <c r="S12">
-        <v>0.01765537911848609</v>
+        <v>0.0003323662813052985</v>
       </c>
       <c r="T12">
-        <v>0.02095049425955866</v>
+        <v>0.0003979812214147478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.801811</v>
       </c>
       <c r="I13">
-        <v>0.07867629878524066</v>
+        <v>0.01321169482730146</v>
       </c>
       <c r="J13">
-        <v>0.08835483256743759</v>
+        <v>0.01340324082254989</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N13">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O13">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P13">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q13">
-        <v>0.8452349455330002</v>
+        <v>0.06657651604755556</v>
       </c>
       <c r="R13">
-        <v>7.607114509797002</v>
+        <v>0.599188644428</v>
       </c>
       <c r="S13">
-        <v>0.03357521109381213</v>
+        <v>0.0008943748805683269</v>
       </c>
       <c r="T13">
-        <v>0.03984152719484043</v>
+        <v>0.001070940186752264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.313248333333333</v>
+        <v>2.134986</v>
       </c>
       <c r="H14">
-        <v>3.939745</v>
+        <v>6.404958</v>
       </c>
       <c r="I14">
-        <v>0.1720294496801595</v>
+        <v>0.04696405476361457</v>
       </c>
       <c r="J14">
-        <v>0.1931920217122658</v>
+        <v>0.0476449497379678</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N14">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O14">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P14">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q14">
-        <v>0.1777790232525</v>
+        <v>0.368830573923</v>
       </c>
       <c r="R14">
-        <v>1.066674139515</v>
+        <v>2.212983443538</v>
       </c>
       <c r="S14">
-        <v>0.007061904225919606</v>
+        <v>0.004954792171262052</v>
       </c>
       <c r="T14">
-        <v>0.005586602736528801</v>
+        <v>0.003955303432969241</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.313248333333333</v>
+        <v>2.134986</v>
       </c>
       <c r="H15">
-        <v>3.939745</v>
+        <v>6.404958</v>
       </c>
       <c r="I15">
-        <v>0.1720294496801595</v>
+        <v>0.04696405476361457</v>
       </c>
       <c r="J15">
-        <v>0.1931920217122658</v>
+        <v>0.0476449497379678</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.398318</v>
       </c>
       <c r="O15">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P15">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q15">
-        <v>0.6121129276566668</v>
+        <v>0.9951297845160002</v>
       </c>
       <c r="R15">
-        <v>5.50901634891</v>
+        <v>8.956168060644</v>
       </c>
       <c r="S15">
-        <v>0.02431492080153416</v>
+        <v>0.01336836372664413</v>
       </c>
       <c r="T15">
-        <v>0.02885294080945489</v>
+        <v>0.01600751346782789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.313248333333333</v>
+        <v>2.134986</v>
       </c>
       <c r="H16">
-        <v>3.939745</v>
+        <v>6.404958</v>
       </c>
       <c r="I16">
-        <v>0.1720294496801595</v>
+        <v>0.04696405476361457</v>
       </c>
       <c r="J16">
-        <v>0.1931920217122658</v>
+        <v>0.0476449497379678</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N16">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O16">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P16">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q16">
-        <v>0.2020953482672222</v>
+        <v>0.5740785205259999</v>
       </c>
       <c r="R16">
-        <v>1.818858134405</v>
+        <v>5.166706684734</v>
       </c>
       <c r="S16">
-        <v>0.008027819974800777</v>
+        <v>0.007712049814465092</v>
       </c>
       <c r="T16">
-        <v>0.009526093728722812</v>
+        <v>0.009234543867441547</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.313248333333333</v>
+        <v>2.134986</v>
       </c>
       <c r="H17">
-        <v>3.939745</v>
+        <v>6.404958</v>
       </c>
       <c r="I17">
-        <v>0.1720294496801595</v>
+        <v>0.04696405476361457</v>
       </c>
       <c r="J17">
-        <v>0.1931920217122658</v>
+        <v>0.0476449497379678</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N17">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O17">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P17">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q17">
-        <v>0.5187606698816667</v>
+        <v>1.233316295127</v>
       </c>
       <c r="R17">
-        <v>3.11256401929</v>
+        <v>7.399897770762</v>
       </c>
       <c r="S17">
-        <v>0.02060669532240053</v>
+        <v>0.01656811109444772</v>
       </c>
       <c r="T17">
-        <v>0.01630175329430313</v>
+        <v>0.0132259647679618</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.313248333333333</v>
+        <v>2.134986</v>
       </c>
       <c r="H18">
-        <v>3.939745</v>
+        <v>6.404958</v>
       </c>
       <c r="I18">
-        <v>0.1720294496801595</v>
+        <v>0.04696405476361457</v>
       </c>
       <c r="J18">
-        <v>0.1931920217122658</v>
+        <v>0.0476449497379678</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N18">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O18">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P18">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q18">
-        <v>0.9718396621211112</v>
+        <v>0.08794790162199999</v>
       </c>
       <c r="R18">
-        <v>8.74655695909</v>
+        <v>0.791531114598</v>
       </c>
       <c r="S18">
-        <v>0.03860432176580117</v>
+        <v>0.001181473568746457</v>
       </c>
       <c r="T18">
-        <v>0.0458092469224713</v>
+        <v>0.001414717197281047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.313248333333333</v>
+        <v>2.134986</v>
       </c>
       <c r="H19">
-        <v>3.939745</v>
+        <v>6.404958</v>
       </c>
       <c r="I19">
-        <v>0.1720294496801595</v>
+        <v>0.04696405476361457</v>
       </c>
       <c r="J19">
-        <v>0.1931920217122658</v>
+        <v>0.0476449497379678</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N19">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O19">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P19">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q19">
-        <v>1.848146198735001</v>
+        <v>0.236661774776</v>
       </c>
       <c r="R19">
-        <v>16.633315788615</v>
+        <v>2.129955972984</v>
       </c>
       <c r="S19">
-        <v>0.07341378758970329</v>
+        <v>0.003179264388049107</v>
       </c>
       <c r="T19">
-        <v>0.08711538422078487</v>
+        <v>0.003806907004486269</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.459911</v>
+        <v>0.1289785</v>
       </c>
       <c r="H20">
-        <v>0.9198219999999999</v>
+        <v>0.257957</v>
       </c>
       <c r="I20">
-        <v>0.06024621103537299</v>
+        <v>0.002837186443999567</v>
       </c>
       <c r="J20">
-        <v>0.04510501867390396</v>
+        <v>0.001918880389154302</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N20">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O20">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P20">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q20">
-        <v>0.06225976175849998</v>
+        <v>0.02228174525675</v>
       </c>
       <c r="R20">
-        <v>0.2490390470339999</v>
+        <v>0.08912698102700001</v>
       </c>
       <c r="S20">
-        <v>0.002473140343687405</v>
+        <v>0.0002993282682233619</v>
       </c>
       <c r="T20">
-        <v>0.001304317945024207</v>
+        <v>0.0001592981886311271</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.459911</v>
+        <v>0.1289785</v>
       </c>
       <c r="H21">
-        <v>0.9198219999999999</v>
+        <v>0.257957</v>
       </c>
       <c r="I21">
-        <v>0.06024621103537299</v>
+        <v>0.002837186443999567</v>
       </c>
       <c r="J21">
-        <v>0.04510501867390396</v>
+        <v>0.001918880389154302</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.398318</v>
       </c>
       <c r="O21">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P21">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q21">
-        <v>0.214367276566</v>
+        <v>0.06011765272100001</v>
       </c>
       <c r="R21">
-        <v>1.286203659396</v>
+        <v>0.360705916326</v>
       </c>
       <c r="S21">
-        <v>0.008515296960149231</v>
+        <v>0.000807607872331233</v>
       </c>
       <c r="T21">
-        <v>0.006736367384496816</v>
+        <v>0.000644695898336957</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.459911</v>
+        <v>0.1289785</v>
       </c>
       <c r="H22">
-        <v>0.9198219999999999</v>
+        <v>0.257957</v>
       </c>
       <c r="I22">
-        <v>0.06024621103537299</v>
+        <v>0.002837186443999567</v>
       </c>
       <c r="J22">
-        <v>0.04510501867390396</v>
+        <v>0.001918880389154302</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N22">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O22">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P22">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q22">
-        <v>0.07077555048633333</v>
+        <v>0.0346811578435</v>
       </c>
       <c r="R22">
-        <v>0.424653302918</v>
+        <v>0.208086947061</v>
       </c>
       <c r="S22">
-        <v>0.00281141244859548</v>
+        <v>0.0004658993628037775</v>
       </c>
       <c r="T22">
-        <v>0.002224080641194106</v>
+        <v>0.0003719173853151916</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.459911</v>
+        <v>0.1289785</v>
       </c>
       <c r="H23">
-        <v>0.9198219999999999</v>
+        <v>0.257957</v>
       </c>
       <c r="I23">
-        <v>0.06024621103537299</v>
+        <v>0.002837186443999567</v>
       </c>
       <c r="J23">
-        <v>0.04510501867390396</v>
+        <v>0.001918880389154302</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N23">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O23">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P23">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q23">
-        <v>0.181674503131</v>
+        <v>0.07450694560575001</v>
       </c>
       <c r="R23">
-        <v>0.7266980125239999</v>
+        <v>0.298027782423</v>
       </c>
       <c r="S23">
-        <v>0.007216644112058435</v>
+        <v>0.001000910599317853</v>
       </c>
       <c r="T23">
-        <v>0.003806010622177955</v>
+        <v>0.0005326701898199992</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.459911</v>
+        <v>0.1289785</v>
       </c>
       <c r="H24">
-        <v>0.9198219999999999</v>
+        <v>0.257957</v>
       </c>
       <c r="I24">
-        <v>0.06024621103537299</v>
+        <v>0.002837186443999567</v>
       </c>
       <c r="J24">
-        <v>0.04510501867390396</v>
+        <v>0.001918880389154302</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N24">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O24">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P24">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q24">
-        <v>0.3403467109006666</v>
+        <v>0.005313097336166666</v>
       </c>
       <c r="R24">
-        <v>2.042080265404</v>
+        <v>0.031878584017</v>
       </c>
       <c r="S24">
-        <v>0.01351956958709108</v>
+        <v>7.137502947867802E-05</v>
       </c>
       <c r="T24">
-        <v>0.0106951980706166</v>
+        <v>5.697714240421669E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.459911</v>
+        <v>0.1289785</v>
       </c>
       <c r="H25">
-        <v>0.9198219999999999</v>
+        <v>0.257957</v>
       </c>
       <c r="I25">
-        <v>0.06024621103537299</v>
+        <v>0.002837186443999567</v>
       </c>
       <c r="J25">
-        <v>0.04510501867390396</v>
+        <v>0.001918880389154302</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N25">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O25">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P25">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q25">
-        <v>0.6472368894990002</v>
+        <v>0.01429718073933333</v>
       </c>
       <c r="R25">
-        <v>3.883421336994</v>
+        <v>0.085783084436</v>
       </c>
       <c r="S25">
-        <v>0.02571014758379136</v>
+        <v>0.000192065311844664</v>
       </c>
       <c r="T25">
-        <v>0.02033904401039427</v>
+        <v>0.0001533215846468102</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.734429333333333</v>
+        <v>40.32368033333334</v>
       </c>
       <c r="H26">
-        <v>5.203288</v>
+        <v>120.971041</v>
       </c>
       <c r="I26">
-        <v>0.2272022100839973</v>
+        <v>0.8870144963222963</v>
       </c>
       <c r="J26">
-        <v>0.2551519776714412</v>
+        <v>0.8998746234080913</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N26">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O26">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P26">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q26">
-        <v>0.2347957693559999</v>
+        <v>6.966137557825167</v>
       </c>
       <c r="R26">
-        <v>1.408774616136</v>
+        <v>41.796825346951</v>
       </c>
       <c r="S26">
-        <v>0.009326776610130039</v>
+        <v>0.09358162331372363</v>
       </c>
       <c r="T26">
-        <v>0.00737832092679792</v>
+        <v>0.07470418600046445</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.734429333333333</v>
+        <v>40.32368033333334</v>
       </c>
       <c r="H27">
-        <v>5.203288</v>
+        <v>120.971041</v>
       </c>
       <c r="I27">
-        <v>0.2272022100839973</v>
+        <v>0.8870144963222963</v>
       </c>
       <c r="J27">
-        <v>0.2551519776714412</v>
+        <v>0.8998746234080913</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.398318</v>
       </c>
       <c r="O27">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P27">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q27">
-        <v>0.8084279188426667</v>
+        <v>18.79510934544867</v>
       </c>
       <c r="R27">
-        <v>7.275851269584001</v>
+        <v>169.155984109038</v>
       </c>
       <c r="S27">
-        <v>0.03211312803939673</v>
+        <v>0.2524895364620314</v>
       </c>
       <c r="T27">
-        <v>0.03810656798309203</v>
+        <v>0.3023354045451446</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.734429333333333</v>
+        <v>40.32368033333334</v>
       </c>
       <c r="H28">
-        <v>5.203288</v>
+        <v>120.971041</v>
       </c>
       <c r="I28">
-        <v>0.2272022100839973</v>
+        <v>0.8870144963222963</v>
       </c>
       <c r="J28">
-        <v>0.2551519776714412</v>
+        <v>0.8998746234080913</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N28">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O28">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P28">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q28">
-        <v>0.2669107519635555</v>
+        <v>10.84267472851033</v>
       </c>
       <c r="R28">
-        <v>2.402196767672</v>
+        <v>97.584072556593</v>
       </c>
       <c r="S28">
-        <v>0.01060247791190577</v>
+        <v>0.1456582063925632</v>
       </c>
       <c r="T28">
-        <v>0.01258127345438313</v>
+        <v>0.1744136940171302</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.734429333333333</v>
+        <v>40.32368033333334</v>
       </c>
       <c r="H29">
-        <v>5.203288</v>
+        <v>120.971041</v>
       </c>
       <c r="I29">
-        <v>0.2272022100839973</v>
+        <v>0.8870144963222963</v>
       </c>
       <c r="J29">
-        <v>0.2551519776714412</v>
+        <v>0.8998746234080913</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N29">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O29">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P29">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q29">
-        <v>0.6851360096826666</v>
+        <v>23.2937602563165</v>
       </c>
       <c r="R29">
-        <v>4.110816058096</v>
+        <v>139.762561537899</v>
       </c>
       <c r="S29">
-        <v>0.02721561179485039</v>
+        <v>0.3129234643691637</v>
       </c>
       <c r="T29">
-        <v>0.02153000188976898</v>
+        <v>0.2498000340064155</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.734429333333333</v>
+        <v>40.32368033333334</v>
       </c>
       <c r="H30">
-        <v>5.203288</v>
+        <v>120.971041</v>
       </c>
       <c r="I30">
-        <v>0.2272022100839973</v>
+        <v>0.8870144963222963</v>
       </c>
       <c r="J30">
-        <v>0.2551519776714412</v>
+        <v>0.8998746234080913</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N30">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O30">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P30">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q30">
-        <v>1.283525114401778</v>
+        <v>1.661080246424556</v>
       </c>
       <c r="R30">
-        <v>11.551726029616</v>
+        <v>14.949722217821</v>
       </c>
       <c r="S30">
-        <v>0.05098538209760582</v>
+        <v>0.02231460183271209</v>
       </c>
       <c r="T30">
-        <v>0.0605010488751764</v>
+        <v>0.02671989606734199</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.734429333333333</v>
+        <v>40.32368033333334</v>
       </c>
       <c r="H31">
-        <v>5.203288</v>
+        <v>120.971041</v>
       </c>
       <c r="I31">
-        <v>0.2272022100839973</v>
+        <v>0.8870144963222963</v>
       </c>
       <c r="J31">
-        <v>0.2551519776714412</v>
+        <v>0.8998746234080913</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N31">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O31">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P31">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q31">
-        <v>2.440878010664</v>
+        <v>4.469853082496445</v>
       </c>
       <c r="R31">
-        <v>21.967902095976</v>
+        <v>40.228677742468</v>
       </c>
       <c r="S31">
-        <v>0.09695883363010856</v>
+        <v>0.06004706395210218</v>
       </c>
       <c r="T31">
-        <v>0.1150547645422227</v>
+        <v>0.07190140877159469</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.476900333333333</v>
+        <v>0.451722</v>
       </c>
       <c r="H32">
-        <v>4.430701</v>
+        <v>1.355166</v>
       </c>
       <c r="I32">
-        <v>0.1934671037661911</v>
+        <v>0.009936691269136893</v>
       </c>
       <c r="J32">
-        <v>0.2172668748339189</v>
+        <v>0.01008075555789794</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2421,28 +2421,28 @@
         <v>0.5</v>
       </c>
       <c r="M32">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N32">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O32">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P32">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q32">
-        <v>0.1999331672745</v>
+        <v>0.07803745997100001</v>
       </c>
       <c r="R32">
-        <v>1.199599003647</v>
+        <v>0.468224759826</v>
       </c>
       <c r="S32">
-        <v>0.007941931804136111</v>
+        <v>0.001048338784978841</v>
       </c>
       <c r="T32">
-        <v>0.006282783868331807</v>
+        <v>0.00083686617961323</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.476900333333333</v>
+        <v>0.451722</v>
       </c>
       <c r="H33">
-        <v>4.430701</v>
+        <v>1.355166</v>
       </c>
       <c r="I33">
-        <v>0.1934671037661911</v>
+        <v>0.009936691269136893</v>
       </c>
       <c r="J33">
-        <v>0.2172668748339189</v>
+        <v>0.01008075555789794</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.398318</v>
       </c>
       <c r="O33">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P33">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q33">
-        <v>0.6883921067686667</v>
+        <v>0.210550334532</v>
       </c>
       <c r="R33">
-        <v>6.195528960918001</v>
+        <v>1.894953010788</v>
       </c>
       <c r="S33">
-        <v>0.02734495352117414</v>
+        <v>0.002828488804763656</v>
       </c>
       <c r="T33">
-        <v>0.03244848427941214</v>
+        <v>0.003386882161622677</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.476900333333333</v>
+        <v>0.451722</v>
       </c>
       <c r="H34">
-        <v>4.430701</v>
+        <v>1.355166</v>
       </c>
       <c r="I34">
-        <v>0.1934671037661911</v>
+        <v>0.009936691269136893</v>
       </c>
       <c r="J34">
-        <v>0.2172668748339189</v>
+        <v>0.01008075555789794</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N34">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O34">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P34">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q34">
-        <v>0.2272796999965556</v>
+        <v>0.121463980302</v>
       </c>
       <c r="R34">
-        <v>2.045517299969</v>
+        <v>1.093175822718</v>
       </c>
       <c r="S34">
-        <v>0.009028216290691346</v>
+        <v>0.001631721503695949</v>
       </c>
       <c r="T34">
-        <v>0.01071319920704155</v>
+        <v>0.001953851980710145</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.476900333333333</v>
+        <v>0.451722</v>
       </c>
       <c r="H35">
-        <v>4.430701</v>
+        <v>1.355166</v>
       </c>
       <c r="I35">
-        <v>0.1934671037661911</v>
+        <v>0.009936691269136893</v>
       </c>
       <c r="J35">
-        <v>0.2172668748339189</v>
+        <v>0.01008075555789794</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N35">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O35">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P35">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q35">
-        <v>0.5834066465736667</v>
+        <v>0.260946021879</v>
       </c>
       <c r="R35">
-        <v>3.500439879442</v>
+        <v>1.565676131274</v>
       </c>
       <c r="S35">
-        <v>0.02317462312196738</v>
+        <v>0.003505493843896922</v>
       </c>
       <c r="T35">
-        <v>0.01833321563269251</v>
+        <v>0.002798359922225833</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.476900333333333</v>
+        <v>0.451722</v>
       </c>
       <c r="H36">
-        <v>4.430701</v>
+        <v>1.355166</v>
       </c>
       <c r="I36">
-        <v>0.1934671037661911</v>
+        <v>0.009936691269136893</v>
       </c>
       <c r="J36">
-        <v>0.2172668748339189</v>
+        <v>0.01008075555789794</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N36">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O36">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P36">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q36">
-        <v>1.092946615275778</v>
+        <v>0.018608085494</v>
       </c>
       <c r="R36">
-        <v>9.836519537482001</v>
+        <v>0.167472769446</v>
       </c>
       <c r="S36">
-        <v>0.04341504514938327</v>
+        <v>0.0002499770974710312</v>
       </c>
       <c r="T36">
-        <v>0.05151782060733385</v>
+        <v>0.0002993269659801933</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.476900333333333</v>
+        <v>0.451722</v>
       </c>
       <c r="H37">
-        <v>4.430701</v>
+        <v>1.355166</v>
       </c>
       <c r="I37">
-        <v>0.1934671037661911</v>
+        <v>0.009936691269136893</v>
       </c>
       <c r="J37">
-        <v>0.2172668748339189</v>
+        <v>0.01008075555789794</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N37">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O37">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P37">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q37">
-        <v>2.078455131203</v>
+        <v>0.05007308255200001</v>
       </c>
       <c r="R37">
-        <v>18.706096180827</v>
+        <v>0.450657742968</v>
       </c>
       <c r="S37">
-        <v>0.08256233387883885</v>
+        <v>0.0006726712343304915</v>
       </c>
       <c r="T37">
-        <v>0.09797137123910703</v>
+        <v>0.0008054683477458617</v>
       </c>
     </row>
   </sheetData>
